--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3847332.887213012</v>
+        <v>3841611.275245127</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.4060179434622</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.5729054055631</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>43.65880257115472</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>196.8405671533556</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>171.7899060594152</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.9407888106546</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>186.2507170030317</v>
       </c>
       <c r="E8" t="n">
-        <v>245.585392931519</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.82466560786678</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>130.715096933522</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.5854101330112</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>142.3844270995955</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>205.526188887224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>73.11206506387254</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>101.986860989755</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>81.83227204853227</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>70.27226321267698</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>133.2519868530432</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.33554688529078</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.6066690490815</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>209.5675193320714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>59.903209192989</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>18.26879610203986</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>82.55485809114292</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>101.466791393484</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>549.649320534154</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>191.3836219274035</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>184.4381211782</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>170.5147171167909</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>170.5147171167909</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1986.826586715716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.826586715716</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315058</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>280.0282177315058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315058</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.114058152426</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1936.051170808855</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1583.282515538741</v>
       </c>
       <c r="X5" t="n">
-        <v>1784.763701299258</v>
+        <v>1209.816757277661</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>819.6774253018493</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.619444146874</v>
+        <v>631.9064409481884</v>
       </c>
       <c r="C8" t="n">
-        <v>1611.619444146874</v>
+        <v>262.9439240077767</v>
       </c>
       <c r="D8" t="n">
-        <v>1611.619444146874</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1782.111371249202</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>1408.645612988122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124028</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518747</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.23671557753</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6262188911253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.473983799873</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.056813762912</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>928.0672628648952</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.274683721365</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5360,10 +5360,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.973093725643</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>1509.973093725643</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
-        <v>1509.973093725643</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,37 +5503,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5618,16 +5618,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5703,22 +5703,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1812.520812468749</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1812.520812468749</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>1523.103642431788</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,13 +5822,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>874.540472347267</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>666.9382613500711</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.145682206541</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1044.396529817271</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>875.4603468893642</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>344.7952525333195</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1674.827124689058</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>1674.827124689058</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>1446.837573791041</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>1226.044994647511</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,34 +6244,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3411.173852007573</v>
+        <v>705.517445238747</v>
       </c>
       <c r="C28" t="n">
-        <v>3411.173852007573</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D28" t="n">
-        <v>3328.51499135249</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>3328.51499135249</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.51499135249</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816073</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U28" t="n">
-        <v>4075.496355941717</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V28" t="n">
-        <v>3820.81186773583</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W28" t="n">
-        <v>3820.81186773583</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X28" t="n">
-        <v>3592.822316837813</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y28" t="n">
-        <v>3592.822316837813</v>
+        <v>887.1659100689867</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.9597618327374</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C31" t="n">
-        <v>784.0235789048305</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9069394924948</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1909.539883392289</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1717.853999219115</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1717.853999219115</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1717.853999219115</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>1463.169511013228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>1173.752340976268</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>1173.752340976268</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>952.9597618327374</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.6313103540838</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1644.746393431758</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1390.061905225871</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1390.061905225871</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1162.072354327854</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>941.2797751843235</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
@@ -6952,16 +6952,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208131</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838525</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330834</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660289</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839438</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839438</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839438</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839438</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839438</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="41">
@@ -7390,67 +7390,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>114.0143638443942</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.2936040684043</v>
+        <v>515.5887995481913</v>
       </c>
       <c r="C46" t="n">
-        <v>561.2936040684043</v>
+        <v>346.6526166202844</v>
       </c>
       <c r="D46" t="n">
-        <v>411.1769646560685</v>
+        <v>346.6526166202844</v>
       </c>
       <c r="E46" t="n">
         <v>263.2638710736754</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1253.151818079135</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W46" t="n">
-        <v>963.7346480421742</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X46" t="n">
-        <v>963.7346480421742</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.942068898644</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992663</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>29.61882225792056</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>29.61882225792249</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>285.6623071682305</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.253057640025</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>36.5317241651058</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23466,16 +23466,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.99924321908361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>120.4096317666681</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.8274111060174</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.1834665018132</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>75.50340795433982</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.43418703317622</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.78320096968008</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>148.3123901394178</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.99483424558463</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.59660578475655</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.64015204954632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.14213605696577</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>88.71226382522335</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>147.7570121569884</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.87910455542625</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>150.670851930344</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652686.437408683</v>
+        <v>652686.4374086829</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>754455.395085268</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="F2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="G2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="H2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="I2" t="n">
         <v>754455.3950852677</v>
       </c>
-      <c r="G2" t="n">
-        <v>754455.395085268</v>
-      </c>
-      <c r="H2" t="n">
-        <v>754455.3950852677</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="K2" t="n">
         <v>754455.3950852678</v>
       </c>
-      <c r="J2" t="n">
-        <v>754455.3950852671</v>
-      </c>
-      <c r="K2" t="n">
-        <v>754455.395085268</v>
-      </c>
       <c r="L2" t="n">
-        <v>754455.3950852677</v>
+        <v>754455.3950852678</v>
       </c>
       <c r="M2" t="n">
+        <v>754455.3950852675</v>
+      </c>
+      <c r="N2" t="n">
         <v>754455.3950852674</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>754455.3950852674</v>
+      </c>
+      <c r="P2" t="n">
         <v>754455.3950852676</v>
-      </c>
-      <c r="O2" t="n">
-        <v>754455.395085268</v>
-      </c>
-      <c r="P2" t="n">
-        <v>754455.3950852674</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="M4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="M4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.96276401295</v>
+        <v>-76185.9627640128</v>
       </c>
       <c r="C6" t="n">
         <v>513781.9164505317</v>
       </c>
       <c r="D6" t="n">
-        <v>513781.9164505316</v>
+        <v>513781.9164505315</v>
       </c>
       <c r="E6" t="n">
-        <v>-87454.02948104219</v>
+        <v>-88125.98438330027</v>
       </c>
       <c r="F6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101063</v>
       </c>
       <c r="G6" t="n">
-        <v>639923.3845123644</v>
+        <v>639251.4296101062</v>
       </c>
       <c r="H6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101064</v>
       </c>
       <c r="I6" t="n">
-        <v>639923.3845123643</v>
+        <v>639251.4296101063</v>
       </c>
       <c r="J6" t="n">
-        <v>463500.1653197705</v>
+        <v>462828.210417513</v>
       </c>
       <c r="K6" t="n">
-        <v>639923.3845123644</v>
+        <v>639251.4296101064</v>
       </c>
       <c r="L6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101064</v>
       </c>
       <c r="M6" t="n">
-        <v>510281.069673419</v>
+        <v>509609.1147711611</v>
       </c>
       <c r="N6" t="n">
-        <v>639923.3845123642</v>
+        <v>639251.4296101059</v>
       </c>
       <c r="O6" t="n">
-        <v>639923.3845123644</v>
+        <v>639251.4296101059</v>
       </c>
       <c r="P6" t="n">
-        <v>639923.3845123638</v>
+        <v>639251.4296101062</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>36.52529830139908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.6680633118499</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.7751600754144</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>54.38360035493375</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>197.9411946190538</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.19685451317341</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.4323246176513</v>
       </c>
       <c r="E8" t="n">
-        <v>136.3449771407428</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>67.90174060238515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>202.6983327287242</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>568.5399380881473</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>581.9206576708337</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359016</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>837.964142581142</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
@@ -37563,10 +37563,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>384.0473624437445</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3841611.275245127</v>
+        <v>3845016.766369575</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.4060179434622</v>
+        <v>88.15868949188338</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>210.6247371741504</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>196.8405671533556</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2507170030317</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.82466560786678</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.9402368568239</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>28.20584125154421</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>101.986860989755</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.27226321267698</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>141.465324968371</v>
       </c>
       <c r="C31" t="n">
-        <v>133.2519868530432</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>163.689844124971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>28.00806043385895</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.903209192989</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>167.0335056422224</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>261.3530920994912</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>82.55485809114292</v>
+        <v>35.17781032963642</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4312,19 +4312,19 @@
         <v>549.649320534154</v>
       </c>
       <c r="D2" t="n">
-        <v>191.3836219274035</v>
+        <v>549.649320534154</v>
       </c>
       <c r="E2" t="n">
-        <v>191.3836219274035</v>
+        <v>163.8610679359097</v>
       </c>
       <c r="F2" t="n">
-        <v>184.4381211782</v>
+        <v>156.9155671867063</v>
       </c>
       <c r="G2" t="n">
-        <v>170.5147171167909</v>
+        <v>142.9921631252972</v>
       </c>
       <c r="H2" t="n">
-        <v>170.5147171167909</v>
+        <v>142.9921631252972</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>433.0775852377275</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>273.640742341437</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>273.640742341437</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>266.6952415922336</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.114058152426</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.051170808855</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.282515538741</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.816757277661</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.6774253018493</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481884</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077767</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519316</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249202</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988122</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.50628101231</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610026</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551157</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323009</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,52 +5038,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>623.6704680167705</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>454.7342850888637</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>304.6176456765279</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>304.6176456765279</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>304.6176456765279</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>136.9148090512469</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>136.9148090512469</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>805.3189328470103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
         <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,19 +5451,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
         <v>1542.890966501056</v>
@@ -5472,16 +5472,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423041</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5618,16 +5618,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5655,16 +5655,16 @@
         <v>270.9417306852383</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>124.051783187328</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>124.051783187328</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5731,22 +5731,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5755,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5943,19 +5943,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,43 +5974,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.7083461157126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>492.7083461157126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>492.7083461157126</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
-        <v>344.7952525333195</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,16 +6214,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6238,40 +6238,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.517445238747</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.554715057174</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.137545020213</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>958.1479941221958</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.1659100689867</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.3827746590082</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7848081407827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D31" t="n">
-        <v>388.668168728447</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E31" t="n">
-        <v>388.668168728447</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X31" t="n">
-        <v>673.3827746590082</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y31" t="n">
-        <v>673.3827746590082</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,43 +6709,43 @@
         <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6952,37 +6952,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.9043113423046</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7180,19 +7180,19 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.86673817257</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7083461157126</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
         <v>263.2638710736754</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1506.106411919136</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1217.00354504478</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>962.3190568388932</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894825</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459524</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2996.062531649191</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3499.035002528528</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>515.5887995481913</v>
+        <v>715.1755123426802</v>
       </c>
       <c r="C46" t="n">
-        <v>346.6526166202844</v>
+        <v>546.2393294147734</v>
       </c>
       <c r="D46" t="n">
-        <v>346.6526166202844</v>
+        <v>396.1226900024376</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W46" t="n">
-        <v>964.3709295897388</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X46" t="n">
-        <v>736.3813786917215</v>
+        <v>935.9680914862104</v>
       </c>
       <c r="Y46" t="n">
-        <v>515.5887995481913</v>
+        <v>715.1755123426802</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>146.0713065388592</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>29.61882225792249</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570114</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>132.9990175570123</v>
+        <v>345.3140082169171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570123</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>304.7351805999703</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>55.41218355301419</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>120.4096317666681</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>116.5491736627766</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>43.43418703317622</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.3123901394178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>38.36665521356625</v>
       </c>
       <c r="C31" t="n">
-        <v>33.99483424558463</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>3.556976973656788</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>258.5149379027321</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>88.71226382522335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>52.51544363394677</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>24.85874610612171</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.87910455542625</v>
+        <v>111.2561523169328</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652686.4374086829</v>
+        <v>652686.437408683</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652686.437408683</v>
+        <v>652686.4374086831</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>754455.3950852677</v>
       </c>
       <c r="F2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852673</v>
       </c>
       <c r="G2" t="n">
         <v>754455.3950852678</v>
       </c>
       <c r="H2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852676</v>
       </c>
       <c r="I2" t="n">
         <v>754455.3950852677</v>
       </c>
       <c r="J2" t="n">
-        <v>754455.3950852675</v>
+        <v>754455.3950852677</v>
       </c>
       <c r="K2" t="n">
         <v>754455.3950852678</v>
       </c>
       <c r="L2" t="n">
-        <v>754455.3950852678</v>
+        <v>754455.3950852674</v>
       </c>
       <c r="M2" t="n">
         <v>754455.3950852675</v>
       </c>
       <c r="N2" t="n">
+        <v>754455.3950852676</v>
+      </c>
+      <c r="O2" t="n">
+        <v>754455.3950852678</v>
+      </c>
+      <c r="P2" t="n">
         <v>754455.3950852674</v>
-      </c>
-      <c r="O2" t="n">
-        <v>754455.3950852674</v>
-      </c>
-      <c r="P2" t="n">
-        <v>754455.3950852676</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918995</v>
@@ -26441,13 +26441,13 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
         <v>18148.49231918994</v>
@@ -26459,7 +26459,7 @@
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26490,16 +26490,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76185.9627640128</v>
+        <v>-76185.96276401315</v>
       </c>
       <c r="C6" t="n">
-        <v>513781.9164505317</v>
+        <v>513781.9164505316</v>
       </c>
       <c r="D6" t="n">
-        <v>513781.9164505315</v>
+        <v>513781.9164505313</v>
       </c>
       <c r="E6" t="n">
-        <v>-88125.98438330027</v>
+        <v>-87521.22497126846</v>
       </c>
       <c r="F6" t="n">
-        <v>639251.4296101063</v>
+        <v>639856.1890221379</v>
       </c>
       <c r="G6" t="n">
-        <v>639251.4296101062</v>
+        <v>639856.1890221385</v>
       </c>
       <c r="H6" t="n">
-        <v>639251.4296101064</v>
+        <v>639856.1890221382</v>
       </c>
       <c r="I6" t="n">
-        <v>639251.4296101063</v>
+        <v>639856.1890221384</v>
       </c>
       <c r="J6" t="n">
-        <v>462828.210417513</v>
+        <v>463432.9698295454</v>
       </c>
       <c r="K6" t="n">
-        <v>639251.4296101064</v>
+        <v>639856.1890221385</v>
       </c>
       <c r="L6" t="n">
-        <v>639251.4296101064</v>
+        <v>639856.189022138</v>
       </c>
       <c r="M6" t="n">
-        <v>509609.1147711611</v>
+        <v>510213.8741831933</v>
       </c>
       <c r="N6" t="n">
-        <v>639251.4296101059</v>
+        <v>639856.1890221382</v>
       </c>
       <c r="O6" t="n">
-        <v>639251.4296101059</v>
+        <v>639856.1890221386</v>
       </c>
       <c r="P6" t="n">
-        <v>639251.4296101062</v>
+        <v>639856.189022138</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>36.52529830139908</v>
+        <v>63.77262675297787</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>203.1594328466446</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>54.38360035493375</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4323246176513</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6983327287242</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-5.065743375613472e-13</v>
       </c>
     </row>
     <row r="12">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>698.3731419517707</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>581.9206576708337</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36123,19 +36123,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493436</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>588.5891319493445</v>
+        <v>800.9041226092493</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37563,7 +37563,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493445</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>703.4971668193419</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
